--- a/Przelicznik.xlsx
+++ b/Przelicznik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwiec\Desktop\AREX\Programy\Przelicznik wagowy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3DFAE-DECB-4A74-B3D1-8C0E051694FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A15E52-D4CF-4833-99DD-75861B1A4AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6022" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6014" uniqueCount="60">
   <si>
     <t>1000 SZT/KG</t>
   </si>
@@ -29723,15 +29723,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D17DA-1483-46D4-888D-55DBC95BDBF7}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
@@ -30371,7 +30371,7 @@
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="100">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B23" s="98" t="s">
         <v>57</v>
@@ -30400,7 +30400,7 @@
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="100">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B24" s="98" t="s">
         <v>57</v>
@@ -30429,7 +30429,7 @@
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="100">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B25" s="98" t="s">
         <v>57</v>
@@ -30458,7 +30458,7 @@
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="100">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B26" s="98" t="s">
         <v>57</v>
@@ -30482,35 +30482,6 @@
         <v>57</v>
       </c>
       <c r="I26" s="98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="100">
-        <v>100</v>
-      </c>
-      <c r="B27" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="98" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Przelicznik.xlsx
+++ b/Przelicznik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwiec\Desktop\AREX\Programy\Przelicznik wagowy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A15E52-D4CF-4833-99DD-75861B1A4AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB4BBC-DCE9-4CA4-AFDD-561CA3F26829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIN 933" sheetId="1" r:id="rId1"/>
@@ -17157,13 +17157,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68C2476-D9C4-4078-BA70-396F8236A40D}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -29725,7 +29725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D17DA-1483-46D4-888D-55DBC95BDBF7}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>

--- a/Przelicznik.xlsx
+++ b/Przelicznik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwiec\Desktop\AREX\Programy\Przelicznik wagowy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EB4BBC-DCE9-4CA4-AFDD-561CA3F26829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C607BD-C340-405A-8B83-6E95AFBA31DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9120" yWindow="2724" windowWidth="17280" windowHeight="8964" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIN 933" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6014" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="61">
   <si>
     <t>1000 SZT/KG</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>DIN 439</t>
   </si>
 </sst>
 </file>
@@ -13711,10 +13714,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702B4550-818D-4392-8DEE-111EBEBBCCE9}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13723,7 +13726,7 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="171" t="s">
         <v>0</v>
       </c>
@@ -13763,8 +13766,11 @@
       <c r="M1" s="174" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N1" s="174" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="172" t="s">
         <v>17</v>
       </c>
@@ -13804,8 +13810,11 @@
       <c r="M2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="172" t="s">
         <v>1</v>
       </c>
@@ -13845,8 +13854,11 @@
       <c r="M3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="172" t="s">
         <v>2</v>
       </c>
@@ -13886,8 +13898,11 @@
       <c r="M4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="172" t="s">
         <v>3</v>
       </c>
@@ -13927,8 +13942,11 @@
       <c r="M5">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="172" t="s">
         <v>4</v>
       </c>
@@ -13968,8 +13986,11 @@
       <c r="M6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="172" t="s">
         <v>5</v>
       </c>
@@ -14009,8 +14030,11 @@
       <c r="M7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="172" t="s">
         <v>6</v>
       </c>
@@ -14050,8 +14074,11 @@
       <c r="M8">
         <v>20.099999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="172" t="s">
         <v>7</v>
       </c>
@@ -14091,8 +14118,11 @@
       <c r="M9">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="172" t="s">
         <v>8</v>
       </c>
@@ -14132,8 +14162,11 @@
       <c r="M10">
         <v>57.199999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="172" t="s">
         <v>9</v>
       </c>
@@ -14173,8 +14206,11 @@
       <c r="M11">
         <v>54.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
@@ -14214,8 +14250,11 @@
       <c r="M12">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="172" t="s">
         <v>11</v>
       </c>
@@ -14255,8 +14294,11 @@
       <c r="M13">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N13">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="172" t="s">
         <v>12</v>
       </c>
@@ -14296,8 +14338,11 @@
       <c r="M14">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="172" t="s">
         <v>13</v>
       </c>
@@ -14337,8 +14382,11 @@
       <c r="M15">
         <v>216</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="172" t="s">
         <v>14</v>
       </c>
@@ -14378,8 +14426,11 @@
       <c r="M16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="172" t="s">
         <v>15</v>
       </c>
@@ -14419,8 +14470,11 @@
       <c r="M17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="172" t="s">
         <v>38</v>
       </c>
@@ -14460,8 +14514,11 @@
       <c r="M18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="172" t="s">
         <v>16</v>
       </c>
@@ -14501,8 +14558,11 @@
       <c r="M19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="173" t="s">
         <v>39</v>
       </c>
@@ -14542,8 +14602,11 @@
       <c r="M20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="172" t="s">
         <v>40</v>
       </c>
@@ -14583,8 +14646,11 @@
       <c r="M21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="172" t="s">
         <v>41</v>
       </c>
@@ -14624,8 +14690,11 @@
       <c r="M22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="172" t="s">
         <v>42</v>
       </c>
@@ -14665,8 +14734,11 @@
       <c r="M23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N23">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="172" t="s">
         <v>43</v>
       </c>
@@ -14706,8 +14778,11 @@
       <c r="M24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="N24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="172" t="s">
         <v>44</v>
       </c>
@@ -14746,6 +14821,9 @@
       </c>
       <c r="M25" t="s">
         <v>57</v>
+      </c>
+      <c r="N25">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -17157,7 +17235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68C2476-D9C4-4078-BA70-396F8236A40D}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
